--- a/lecNote/02_DBMS/0923.6_연습문제23과24.xlsx
+++ b/lecNote/02_DBMS/0923.6_연습문제23과24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\02_DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFEA2B7-1567-41A2-9EAE-019A3DC18D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3012B61C-CE6B-44CE-AC1C-1852E04D9C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23번" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>MILLER</t>
   </si>
@@ -113,8 +113,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVG(SAL) =&gt; AVGSAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AVGSAL</t>
   </si>
 </sst>
 </file>
@@ -537,20 +536,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="9" style="14"/>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="7" max="7" width="19.09765625" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -563,9 +563,14 @@
       <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <v>7369</v>
       </c>
@@ -578,9 +583,14 @@
       <c r="D2" s="10">
         <v>20</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="12">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="10">
         <v>7499</v>
       </c>
@@ -594,14 +604,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <v>7521</v>
       </c>
@@ -615,14 +625,14 @@
         <v>30</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="12">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8">
         <v>1566.6666666666599</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>7566</v>
       </c>
@@ -636,14 +646,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="12">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="G5" s="12">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9">
         <v>2175</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>7654</v>
       </c>
@@ -657,14 +667,14 @@
         <v>30</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>2916.6666666666601</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>7698</v>
       </c>
@@ -679,7 +689,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>7782</v>
       </c>
@@ -694,7 +704,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>7788</v>
       </c>
@@ -709,7 +719,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>7839</v>
       </c>
@@ -724,7 +734,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>7844</v>
       </c>
@@ -739,7 +749,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>7876</v>
       </c>
@@ -754,7 +764,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>7900</v>
       </c>
@@ -769,7 +779,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <v>7902</v>
       </c>
@@ -784,7 +794,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>7934</v>
       </c>
@@ -810,17 +820,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -837,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>7369</v>
       </c>
@@ -858,7 +868,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>7499</v>
       </c>
@@ -884,7 +894,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>7521</v>
       </c>
@@ -910,7 +920,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>7566</v>
       </c>
@@ -936,7 +946,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>7654</v>
       </c>
@@ -962,7 +972,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>7698</v>
       </c>
@@ -988,7 +998,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7782</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7788</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7839</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7844</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>7876</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>7900</v>
       </c>
@@ -1096,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>7902</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>7934</v>
       </c>
